--- a/src/analysis_examples/circadb/results_jtk/cosinor_10380823_lasp1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10380823_lasp1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.15214115236828413, 0.29727058159836084]</t>
+          <t>[0.15357325318332773, 0.2958384807833172]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.208983766571748e-06</v>
+        <v>1.660260807057057e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.208983766571748e-06</v>
+        <v>1.660260807057057e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-0.779894872963232</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.0817896624973864, -0.4780000834290776]</t>
+          <t>[-1.0943686120613094, -0.4654211338651546]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.501723848746806e-05</v>
+        <v>4.136599968496135e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>2.501723848746806e-05</v>
+        <v>4.136599968496135e-05</v>
       </c>
       <c r="S2" t="n">
         <v>0.3528002915941528</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3163658599979818, 0.3892347231903239]</t>
+          <t>[0.3163253044901018, 0.38927527869820383]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.981461461461539</v>
       </c>
       <c r="X2" t="n">
-        <v>1.827347347347394</v>
+        <v>1.779259259259305</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.135575575575683</v>
+        <v>4.183663663663772</v>
       </c>
     </row>
   </sheetData>
